--- a/data/mach8_SST_CD.xlsx
+++ b/data/mach8_SST_CD.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cranfield-my.sharepoint.com/personal/e_carias_cranfield_ac_uk/Documents/Documents/PhD/Missile/Sim/mach8/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FC677080AA9EE558AB0C4FBF8D1B95BAA1476A79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E285E3AD-7729-4087-B6B0-5C926DFBCB05}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="2220" windowWidth="17520" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="fin" sheetId="1" r:id="rId1"/>
     <sheet name="flap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,21 +79,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +123,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -171,7 +157,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -206,10 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,16 +366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>-12.5</v>
       </c>
@@ -426,191 +408,194 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.12045868162597199</v>
+        <v>0.1205548225436866</v>
       </c>
       <c r="C2">
-        <v>0.116369191359999</v>
+        <v>0.1165755515525405</v>
       </c>
       <c r="D2">
-        <v>0.11286978957580469</v>
+        <v>0.112906701841133</v>
       </c>
       <c r="E2">
-        <v>0.1107092493294544</v>
+        <v>0.110774765472182</v>
       </c>
       <c r="F2">
-        <v>0.1095071810747497</v>
+        <v>0.1096746885077866</v>
       </c>
       <c r="G2">
-        <v>0.1089947506129057</v>
+        <v>0.1091864907434441</v>
       </c>
       <c r="H2">
-        <v>0.1095071810747497</v>
+        <v>0.1096746885077866</v>
       </c>
       <c r="I2">
-        <v>0.1107092493294544</v>
+        <v>0.110774765472182</v>
       </c>
       <c r="J2">
-        <v>0.11286978957580469</v>
+        <v>0.112906701841133</v>
       </c>
       <c r="K2">
-        <v>0.116369191359999</v>
+        <v>0.1165755515525405</v>
       </c>
       <c r="L2">
-        <v>0.12045868162597199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1205548225436866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1308979049699224</v>
+        <v>0.1311820964553627</v>
       </c>
       <c r="C3">
-        <v>0.12928470341172779</v>
+        <v>0.1297074017371975</v>
       </c>
       <c r="D3">
-        <v>0.12828395571737189</v>
+        <v>0.1285360735802432</v>
       </c>
       <c r="E3">
-        <v>0.12834900641518179</v>
+        <v>0.1286743032084302</v>
       </c>
       <c r="F3">
-        <v>0.1296155085410208</v>
+        <v>0.1299120406614449</v>
       </c>
       <c r="G3">
-        <v>0.13174000902091981</v>
+        <v>0.1319099073428357</v>
       </c>
       <c r="H3">
-        <v>0.13393819766325751</v>
+        <v>0.1343599123304604</v>
       </c>
       <c r="I3">
-        <v>0.13704465155264231</v>
+        <v>0.1375397142271043</v>
       </c>
       <c r="J3">
-        <v>0.1414142676917213</v>
+        <v>0.1419927353233321</v>
       </c>
       <c r="K3">
-        <v>0.1474315916675206</v>
+        <v>0.1481450158832174</v>
       </c>
       <c r="L3">
-        <v>0.15396631785501891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1543332367725047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.18403603441117111</v>
+        <v>0.1853123528283376</v>
       </c>
       <c r="C4">
-        <v>0.18487543830143849</v>
+        <v>0.1858463924877079</v>
       </c>
       <c r="D4">
-        <v>0.18649173950968839</v>
+        <v>0.1872484784618326</v>
       </c>
       <c r="E4">
-        <v>0.1888413963758917</v>
+        <v>0.1896152947261011</v>
       </c>
       <c r="F4">
-        <v>0.19210677854313449</v>
+        <v>0.1931069692760089</v>
       </c>
       <c r="G4">
-        <v>0.1962867223614464</v>
+        <v>0.1971823884294884</v>
       </c>
       <c r="H4">
-        <v>0.2003225952087834</v>
+        <v>0.2015623644815292</v>
       </c>
       <c r="I4">
-        <v>0.2051154168651726</v>
+        <v>0.206197172853875</v>
       </c>
       <c r="J4">
-        <v>0.21142714192924389</v>
+        <v>0.2125424274979591</v>
       </c>
       <c r="K4">
-        <v>0.21953467771496499</v>
+        <v>0.2208107067850741</v>
       </c>
       <c r="L4">
-        <v>0.22753707313182731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.228536407814945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0.2797478876300278</v>
+      </c>
       <c r="C5">
-        <v>0.28197811532000472</v>
+        <v>0.2820819510098018</v>
       </c>
       <c r="D5">
-        <v>0.28582439722865222</v>
+        <v>0.2855975578212556</v>
       </c>
       <c r="E5">
-        <v>0.29047547894968551</v>
+        <v>0.2905445232846264</v>
       </c>
       <c r="F5">
-        <v>0.29582001527766549</v>
+        <v>0.2961390627457829</v>
       </c>
       <c r="G5">
-        <v>0.30228294982123449</v>
+        <v>0.3024357297810928</v>
       </c>
       <c r="H5">
-        <v>0.30798009982073271</v>
+        <v>0.3082485090277607</v>
       </c>
       <c r="I5">
-        <v>0.31393778751263213</v>
+        <v>0.3147261137263411</v>
       </c>
       <c r="J5">
-        <v>0.32203849808058171</v>
+        <v>0.3225707382397905</v>
       </c>
       <c r="K5">
-        <v>0.33191414402175051</v>
+        <v>0.3323259990769096</v>
       </c>
       <c r="L5">
-        <v>0.34212116719491409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3420822914235146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.41315570637179022</v>
+        <v>0.413890688158027</v>
       </c>
       <c r="C6">
-        <v>0.41721618570781632</v>
+        <v>0.4182026226862909</v>
       </c>
       <c r="D6">
-        <v>0.42335998447627748</v>
+        <v>0.424142087612063</v>
       </c>
       <c r="E6">
-        <v>0.43047707425584658</v>
+        <v>0.4308611931266859</v>
       </c>
       <c r="F6">
-        <v>0.43838339911445179</v>
+        <v>0.4396411590560946</v>
       </c>
       <c r="G6">
-        <v>0.44699973877119997</v>
+        <v>0.4479888078941477</v>
       </c>
       <c r="H6">
-        <v>0.45474624710639322</v>
+        <v>0.4558476235300228</v>
       </c>
       <c r="I6">
-        <v>0.46278500854127591</v>
+        <v>0.4631465336255355</v>
       </c>
       <c r="J6">
-        <v>0.47215787363090461</v>
+        <v>0.4724307058384555</v>
       </c>
       <c r="K6">
-        <v>0.48312076764348039</v>
+        <v>0.4839006057604804</v>
       </c>
       <c r="L6">
-        <v>0.49477456277121917</v>
+        <v>0.495064730465318</v>
       </c>
     </row>
   </sheetData>
@@ -619,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>-17.5</v>
       </c>
@@ -667,224 +652,209 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.118171154073408</v>
+        <v>0.1185383005611808</v>
       </c>
       <c r="C2">
-        <v>0.11510111871588059</v>
+        <v>0.1152262919096675</v>
       </c>
       <c r="D2">
-        <v>0.1127283970866181</v>
+        <v>0.112657430351855</v>
       </c>
       <c r="E2">
-        <v>0.1112057782074397</v>
+        <v>0.1111228507300814</v>
       </c>
       <c r="F2">
-        <v>0.1102291393877685</v>
+        <v>0.1102085010807108</v>
       </c>
       <c r="G2">
-        <v>0.1097160441680016</v>
-      </c>
-      <c r="H2">
-        <v>0.1089947506129057</v>
+        <v>0.1096396539906066</v>
       </c>
       <c r="I2">
-        <v>0.1097160441680016</v>
+        <v>0.1096396539906066</v>
       </c>
       <c r="J2">
-        <v>0.1102291393877685</v>
+        <v>0.1102085010807108</v>
       </c>
       <c r="K2">
-        <v>0.1112057782074397</v>
+        <v>0.1111228507300814</v>
       </c>
       <c r="L2">
-        <v>0.1127283970866181</v>
+        <v>0.112657430351855</v>
       </c>
       <c r="M2">
-        <v>0.11510111871588059</v>
+        <v>0.1152262919096675</v>
       </c>
       <c r="N2">
-        <v>0.118171154073408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1185383005611808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.13168619963861741</v>
+        <v>0.1322047823497682</v>
       </c>
       <c r="C3">
-        <v>0.13069038534008701</v>
+        <v>0.1309706421089474</v>
       </c>
       <c r="D3">
-        <v>0.12993169591589659</v>
+        <v>0.1301691418577595</v>
       </c>
       <c r="E3">
-        <v>0.12956138584526691</v>
+        <v>0.1297686559005534</v>
       </c>
       <c r="F3">
-        <v>8.7147385631978249</v>
+        <v>0.1299615456237724</v>
       </c>
       <c r="G3">
-        <v>0.13029779173101891</v>
-      </c>
-      <c r="H3">
-        <v>0.13174000902091981</v>
+        <v>0.1303702262467889</v>
       </c>
       <c r="I3">
-        <v>0.13378872841456929</v>
+        <v>0.133722298633091</v>
       </c>
       <c r="J3">
-        <v>0.13515709834017939</v>
+        <v>0.1352762207420065</v>
       </c>
       <c r="K3">
-        <v>0.13778302753178079</v>
+        <v>0.1380097991732097</v>
       </c>
       <c r="L3">
-        <v>0.1411991622993983</v>
+        <v>0.1410551977779369</v>
       </c>
       <c r="M3">
-        <v>0.1456067067295623</v>
+        <v>0.145794593493466</v>
       </c>
       <c r="N3">
-        <v>0.1512286194422674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1512510259425814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1893500959837868</v>
+        <v>0.1900649977465276</v>
       </c>
       <c r="C4">
-        <v>0.1896253875503689</v>
+        <v>0.190462000207427</v>
       </c>
       <c r="D4">
-        <v>0.1901503803060815</v>
+        <v>0.190759669914353</v>
       </c>
       <c r="E4">
-        <v>0.19089961043337519</v>
+        <v>0.1912955688981463</v>
       </c>
       <c r="F4">
-        <v>0.1917570564603234</v>
+        <v>0.1925073214669481</v>
       </c>
       <c r="G4">
-        <v>0.19289427343321561</v>
-      </c>
-      <c r="H4">
-        <v>0.1962867223614464</v>
+        <v>0.1935395380760029</v>
       </c>
       <c r="I4">
-        <v>0.20006528216889849</v>
+        <v>0.2018872390950389</v>
       </c>
       <c r="J4">
-        <v>0.20298083343124099</v>
+        <v>0.2036601173620273</v>
       </c>
       <c r="K4">
-        <v>0.2069013184167329</v>
+        <v>0.2075460640189648</v>
       </c>
       <c r="L4">
-        <v>0.21191505863333421</v>
+        <v>0.2125871564814475</v>
       </c>
       <c r="M4">
-        <v>0.21841978463234529</v>
+        <v>0.2187734356718344</v>
       </c>
       <c r="N4">
-        <v>0.22572133839831399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.2262110157349564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.28801984389711027</v>
+        <v>0.2887362248924489</v>
       </c>
       <c r="C5">
-        <v>0.2895373243730951</v>
+        <v>0.2896307102704179</v>
       </c>
       <c r="D5">
-        <v>0.29056874692718748</v>
+        <v>0.291095452411847</v>
       </c>
       <c r="E5">
-        <v>0.29231178135193331</v>
+        <v>0.2922779070245712</v>
       </c>
       <c r="F5">
-        <v>19.747457329187529</v>
+        <v>0.2944875850005364</v>
       </c>
       <c r="G5">
-        <v>0.29624469328259467</v>
-      </c>
-      <c r="H5">
-        <v>0.30228294982123449</v>
+        <v>0.2964643358887197</v>
       </c>
       <c r="I5">
-        <v>0.3072745351806937</v>
+        <v>0.3080166413168118</v>
       </c>
       <c r="J5">
-        <v>0.31128655505941111</v>
+        <v>0.3117924041869725</v>
       </c>
       <c r="K5">
-        <v>0.31691489954289309</v>
+        <v>0.3169264434912012</v>
       </c>
       <c r="L5">
-        <v>0.32327312682854842</v>
+        <v>0.3231633335133553</v>
       </c>
       <c r="M5">
-        <v>0.33143443193425071</v>
+        <v>0.33107729357132</v>
       </c>
       <c r="N5">
-        <v>0.34014233516335918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3396283777853914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.4247532556441303</v>
+        <v>0.4260802061236916</v>
       </c>
       <c r="C6">
-        <v>0.4277795964630513</v>
+        <v>0.4282833936708366</v>
       </c>
       <c r="D6">
-        <v>0.42920468311668208</v>
+        <v>0.4304494394146375</v>
       </c>
       <c r="E6">
-        <v>0.43208984991577848</v>
+        <v>0.4327867932053358</v>
       </c>
       <c r="F6">
-        <v>0.43496700148406858</v>
+        <v>0.4366261267602278</v>
       </c>
       <c r="G6">
-        <v>0.43884656807860878</v>
-      </c>
-      <c r="H6">
-        <v>0.44699973877119997</v>
+        <v>0.4391498328456029</v>
       </c>
       <c r="I6">
-        <v>0.45369209182626258</v>
+        <v>0.454543103727393</v>
       </c>
       <c r="J6">
-        <v>0.458847078255119</v>
+        <v>0.4595964630783876</v>
       </c>
       <c r="K6">
-        <v>0.46569054437957558</v>
+        <v>0.4652405918956632</v>
       </c>
       <c r="L6">
-        <v>0.47342488654443587</v>
+        <v>0.4727205993930123</v>
       </c>
       <c r="M6">
-        <v>0.48305704297840169</v>
+        <v>0.4823288912028129</v>
       </c>
       <c r="N6">
-        <v>0.4937789272417521</v>
+        <v>0.4925591870203223</v>
       </c>
     </row>
   </sheetData>

--- a/data/mach8_SST_CD.xlsx
+++ b/data/mach8_SST_CD.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s301312\Documents\p_programs\exp_post\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04233C-F87C-4FE6-A5DD-ACF2ED81141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3510" yWindow="2040" windowWidth="17520" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fin" sheetId="1" r:id="rId1"/>
     <sheet name="flap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +85,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +137,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -157,6 +171,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -191,9 +206,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -366,14 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>-12.5</v>
       </c>
@@ -408,7 +424,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -419,7 +435,7 @@
         <v>0.1165755515525405</v>
       </c>
       <c r="D2">
-        <v>0.112906701841133</v>
+        <v>0.11290670184113299</v>
       </c>
       <c r="E2">
         <v>0.110774765472182</v>
@@ -437,7 +453,7 @@
         <v>0.110774765472182</v>
       </c>
       <c r="J2">
-        <v>0.112906701841133</v>
+        <v>0.11290670184113299</v>
       </c>
       <c r="K2">
         <v>0.1165755515525405</v>
@@ -446,50 +462,50 @@
         <v>0.1205548225436866</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1311820964553627</v>
+        <v>0.13118209645536269</v>
       </c>
       <c r="C3">
         <v>0.1297074017371975</v>
       </c>
       <c r="D3">
-        <v>0.1285360735802432</v>
+        <v>0.12853607358024319</v>
       </c>
       <c r="E3">
-        <v>0.1286743032084302</v>
+        <v>0.12867430320843021</v>
       </c>
       <c r="F3">
-        <v>0.1299120406614449</v>
+        <v>0.12991204066144491</v>
       </c>
       <c r="G3">
         <v>0.1319099073428357</v>
       </c>
       <c r="H3">
-        <v>0.1343599123304604</v>
+        <v>0.13435991233046041</v>
       </c>
       <c r="I3">
-        <v>0.1375397142271043</v>
+        <v>0.13753971422710429</v>
       </c>
       <c r="J3">
-        <v>0.1419927353233321</v>
+        <v>0.14199273532333209</v>
       </c>
       <c r="K3">
-        <v>0.1481450158832174</v>
+        <v>0.14814501588321741</v>
       </c>
       <c r="L3">
-        <v>0.1543332367725047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.15433323677250471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1853123528283376</v>
+        <v>0.18531235282833761</v>
       </c>
       <c r="C4">
         <v>0.1858463924877079</v>
@@ -498,7 +514,7 @@
         <v>0.1872484784618326</v>
       </c>
       <c r="E4">
-        <v>0.1896152947261011</v>
+        <v>0.18961529472610111</v>
       </c>
       <c r="F4">
         <v>0.1931069692760089</v>
@@ -510,92 +526,92 @@
         <v>0.2015623644815292</v>
       </c>
       <c r="I4">
-        <v>0.206197172853875</v>
+        <v>0.20619717285387501</v>
       </c>
       <c r="J4">
         <v>0.2125424274979591</v>
       </c>
       <c r="K4">
-        <v>0.2208107067850741</v>
+        <v>0.22081070678507411</v>
       </c>
       <c r="L4">
         <v>0.228536407814945</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.2797478876300278</v>
+        <v>0.27974788763002778</v>
       </c>
       <c r="C5">
-        <v>0.2820819510098018</v>
+        <v>0.28208195100980182</v>
       </c>
       <c r="D5">
-        <v>0.2855975578212556</v>
+        <v>0.28559755782125562</v>
       </c>
       <c r="E5">
-        <v>0.2905445232846264</v>
+        <v>0.29054452328462638</v>
       </c>
       <c r="F5">
-        <v>0.2961390627457829</v>
+        <v>0.29613906274578289</v>
       </c>
       <c r="G5">
-        <v>0.3024357297810928</v>
+        <v>0.30243572978109279</v>
       </c>
       <c r="H5">
-        <v>0.3082485090277607</v>
+        <v>0.30824850902776069</v>
       </c>
       <c r="I5">
-        <v>0.3147261137263411</v>
+        <v>0.31472611372634107</v>
       </c>
       <c r="J5">
-        <v>0.3225707382397905</v>
+        <v>0.32257073823979049</v>
       </c>
       <c r="K5">
-        <v>0.3323259990769096</v>
+        <v>0.33232599907690957</v>
       </c>
       <c r="L5">
         <v>0.3420822914235146</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.413890688158027</v>
+        <v>0.41389068815802699</v>
       </c>
       <c r="C6">
-        <v>0.4182026226862909</v>
+        <v>0.41820262268629088</v>
       </c>
       <c r="D6">
-        <v>0.424142087612063</v>
+        <v>0.42414208761206301</v>
       </c>
       <c r="E6">
-        <v>0.4308611931266859</v>
+        <v>0.43086119312668592</v>
       </c>
       <c r="F6">
-        <v>0.4396411590560946</v>
+        <v>0.43964115905609458</v>
       </c>
       <c r="G6">
-        <v>0.4479888078941477</v>
+        <v>0.44798880789414769</v>
       </c>
       <c r="H6">
-        <v>0.4558476235300228</v>
+        <v>0.45584762353002278</v>
       </c>
       <c r="I6">
-        <v>0.4631465336255355</v>
+        <v>0.46314653362553548</v>
       </c>
       <c r="J6">
-        <v>0.4724307058384555</v>
+        <v>0.47243070583845548</v>
       </c>
       <c r="K6">
-        <v>0.4839006057604804</v>
+        <v>0.48390060576048038</v>
       </c>
       <c r="L6">
-        <v>0.495064730465318</v>
+        <v>0.49506473046531801</v>
       </c>
     </row>
   </sheetData>
@@ -604,14 +620,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>-17.5</v>
       </c>
@@ -652,7 +670,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -663,10 +681,10 @@
         <v>0.1152262919096675</v>
       </c>
       <c r="D2">
-        <v>0.112657430351855</v>
+        <v>0.11265743035185501</v>
       </c>
       <c r="E2">
-        <v>0.1111228507300814</v>
+        <v>0.11112285073008139</v>
       </c>
       <c r="F2">
         <v>0.1102085010807108</v>
@@ -674,6 +692,9 @@
       <c r="G2">
         <v>0.1096396539906066</v>
       </c>
+      <c r="H2">
+        <v>0.109186491</v>
+      </c>
       <c r="I2">
         <v>0.1096396539906066</v>
       </c>
@@ -681,10 +702,10 @@
         <v>0.1102085010807108</v>
       </c>
       <c r="K2">
-        <v>0.1111228507300814</v>
+        <v>0.11112285073008139</v>
       </c>
       <c r="L2">
-        <v>0.112657430351855</v>
+        <v>0.11265743035185501</v>
       </c>
       <c r="M2">
         <v>0.1152262919096675</v>
@@ -693,48 +714,51 @@
         <v>0.1185383005611808</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1322047823497682</v>
+        <v>0.13220478234976821</v>
       </c>
       <c r="C3">
         <v>0.1309706421089474</v>
       </c>
       <c r="D3">
-        <v>0.1301691418577595</v>
+        <v>0.13016914185775949</v>
       </c>
       <c r="E3">
-        <v>0.1297686559005534</v>
+        <v>0.12976865590055339</v>
       </c>
       <c r="F3">
-        <v>0.1299615456237724</v>
+        <v>0.12996154562377241</v>
       </c>
       <c r="G3">
         <v>0.1303702262467889</v>
       </c>
+      <c r="H3">
+        <v>0.13190990699999999</v>
+      </c>
       <c r="I3">
-        <v>0.133722298633091</v>
+        <v>0.13372229863309101</v>
       </c>
       <c r="J3">
-        <v>0.1352762207420065</v>
+        <v>0.13527622074200649</v>
       </c>
       <c r="K3">
-        <v>0.1380097991732097</v>
+        <v>0.13800979917320971</v>
       </c>
       <c r="L3">
         <v>0.1410551977779369</v>
       </c>
       <c r="M3">
-        <v>0.145794593493466</v>
+        <v>0.14579459349346599</v>
       </c>
       <c r="N3">
-        <v>0.1512510259425814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.15125102594258141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -742,22 +766,25 @@
         <v>0.1900649977465276</v>
       </c>
       <c r="C4">
-        <v>0.190462000207427</v>
+        <v>0.19046200020742701</v>
       </c>
       <c r="D4">
         <v>0.190759669914353</v>
       </c>
       <c r="E4">
-        <v>0.1912955688981463</v>
+        <v>0.19129556889814631</v>
       </c>
       <c r="F4">
         <v>0.1925073214669481</v>
       </c>
       <c r="G4">
-        <v>0.1935395380760029</v>
+        <v>0.19353953807600291</v>
+      </c>
+      <c r="H4">
+        <v>0.19718238799999999</v>
       </c>
       <c r="I4">
-        <v>0.2018872390950389</v>
+        <v>0.20188723909503889</v>
       </c>
       <c r="J4">
         <v>0.2036601173620273</v>
@@ -766,95 +793,101 @@
         <v>0.2075460640189648</v>
       </c>
       <c r="L4">
-        <v>0.2125871564814475</v>
+        <v>0.21258715648144749</v>
       </c>
       <c r="M4">
-        <v>0.2187734356718344</v>
+        <v>0.21877343567183441</v>
       </c>
       <c r="N4">
-        <v>0.2262110157349564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.22621101573495639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.2887362248924489</v>
+        <v>0.28873622489244888</v>
       </c>
       <c r="C5">
-        <v>0.2896307102704179</v>
+        <v>0.28963071027041792</v>
       </c>
       <c r="D5">
-        <v>0.291095452411847</v>
+        <v>0.29109545241184698</v>
       </c>
       <c r="E5">
-        <v>0.2922779070245712</v>
+        <v>0.29227790702457118</v>
       </c>
       <c r="F5">
         <v>0.2944875850005364</v>
       </c>
       <c r="G5">
-        <v>0.2964643358887197</v>
+        <v>0.29646433588871968</v>
+      </c>
+      <c r="H5">
+        <v>0.30243573000000001</v>
       </c>
       <c r="I5">
-        <v>0.3080166413168118</v>
+        <v>0.30801664131681178</v>
       </c>
       <c r="J5">
-        <v>0.3117924041869725</v>
+        <v>0.31179240418697252</v>
       </c>
       <c r="K5">
-        <v>0.3169264434912012</v>
+        <v>0.31692644349120119</v>
       </c>
       <c r="L5">
         <v>0.3231633335133553</v>
       </c>
       <c r="M5">
-        <v>0.33107729357132</v>
+        <v>0.33107729357131999</v>
       </c>
       <c r="N5">
         <v>0.3396283777853914</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.4260802061236916</v>
+        <v>0.42608020612369157</v>
       </c>
       <c r="C6">
-        <v>0.4282833936708366</v>
+        <v>0.42828339367083662</v>
       </c>
       <c r="D6">
-        <v>0.4304494394146375</v>
+        <v>0.43044943941463748</v>
       </c>
       <c r="E6">
-        <v>0.4327867932053358</v>
+        <v>0.43278679320533581</v>
       </c>
       <c r="F6">
-        <v>0.4366261267602278</v>
+        <v>0.43662612676022777</v>
       </c>
       <c r="G6">
-        <v>0.4391498328456029</v>
+        <v>0.43914983284560288</v>
+      </c>
+      <c r="H6">
+        <v>0.44798880800000002</v>
       </c>
       <c r="I6">
-        <v>0.454543103727393</v>
+        <v>0.45454310372739298</v>
       </c>
       <c r="J6">
-        <v>0.4595964630783876</v>
+        <v>0.45959646307838758</v>
       </c>
       <c r="K6">
-        <v>0.4652405918956632</v>
+        <v>0.46524059189566319</v>
       </c>
       <c r="L6">
-        <v>0.4727205993930123</v>
+        <v>0.47272059939301231</v>
       </c>
       <c r="M6">
-        <v>0.4823288912028129</v>
+        <v>0.48232889120281291</v>
       </c>
       <c r="N6">
-        <v>0.4925591870203223</v>
+        <v>0.49255918702032231</v>
       </c>
     </row>
   </sheetData>
